--- a/Metadata_INSPIRE.xlsx
+++ b/Metadata_INSPIRE.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\dienst_proces_begeleiding\dataharmonisatie_tbv_INSPIRE\producten\M000012_metadata_inspire-data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\codefornl\INSPIRE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14206" uniqueCount="1345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14206" uniqueCount="1346">
   <si>
     <t>Category</t>
   </si>
@@ -4087,6 +4087,11 @@
   <si>
     <t>http://nationaalgeoregister.nl/geonetwork/srv/dut/catalog.search#/metadata/abaf1e22-55aa-4a11-a855-7ac963e4a82b
 http://www.nationaalgeoregister.nl/geonetwork/srv/dut/catalog.search#/metadata/ad042f19-0218-440a-8572-4b9e034e39e5</t>
+  </si>
+  <si>
+    <t>https://www.vaarweginformatie.nl/fdd/main/infra/downloads /RIS-Index
+http://www.nationaalgeoregister.nl/geonetwork/srv/dut/catalog.search#/metadata/831f7bd7-c2ae-4336-bd2f-47ab20d7cdb7
+http://www.nationaalgeoregister.nl/geonetwork/srv/dut/catalog.search#/metadata/34e44dcf-106e-4136-a780-84821063edfb</t>
   </si>
 </sst>
 </file>
@@ -6852,7 +6857,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B97" sqref="B97"/>
+      <selection pane="bottomLeft" activeCell="C114" sqref="C114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
@@ -7698,7 +7703,7 @@
         <v>511</v>
       </c>
       <c r="AN2" s="30" t="str">
-        <f>M2</f>
+        <f t="shared" ref="AN2:AN33" si="0">M2</f>
         <v>eu-54316b0-f448-4b88-956e-ceaacd6ekecf</v>
       </c>
       <c r="AO2" s="29"/>
@@ -8098,7 +8103,7 @@
         <v>511</v>
       </c>
       <c r="AN3" s="38" t="str">
-        <f>M3</f>
+        <f t="shared" si="0"/>
         <v>eu-54316b0-f448-4b88-956e-ceaacd6edecf</v>
       </c>
       <c r="AO3" s="37"/>
@@ -8500,7 +8505,7 @@
         <v>511</v>
       </c>
       <c r="AN4" s="38" t="str">
-        <f>M4</f>
+        <f t="shared" si="0"/>
         <v>eu-54316b0-f448-4b88-956e-ceaacd6edecf</v>
       </c>
       <c r="AO4" s="37"/>
@@ -8900,7 +8905,7 @@
         <v>511</v>
       </c>
       <c r="AN5" s="38" t="str">
-        <f>M5</f>
+        <f t="shared" si="0"/>
         <v>eu-54316b0-f448-4b88-956e-ceaacd6edecf</v>
       </c>
       <c r="AO5" s="37"/>
@@ -9300,7 +9305,7 @@
         <v>511</v>
       </c>
       <c r="AN6" s="38" t="str">
-        <f>M6</f>
+        <f t="shared" si="0"/>
         <v>eu-5cdd2c5-b64b-4209-9263-4cd5548c4d0a</v>
       </c>
       <c r="AO6" s="37"/>
@@ -9702,7 +9707,7 @@
         <v>511</v>
       </c>
       <c r="AN7" s="38" t="str">
-        <f>M7</f>
+        <f t="shared" si="0"/>
         <v>eu-5cdd2c5-b64b-4209-9263-4cd5548c4d0a</v>
       </c>
       <c r="AO7" s="37"/>
@@ -10102,7 +10107,7 @@
         <v>511</v>
       </c>
       <c r="AN8" s="38" t="str">
-        <f>M8</f>
+        <f t="shared" si="0"/>
         <v>eu-5cdd2c5-b64b-4209-9263-4cd5548c4d0a</v>
       </c>
       <c r="AO8" s="37"/>
@@ -10500,7 +10505,7 @@
         <v>511</v>
       </c>
       <c r="AN9" s="38" t="str">
-        <f>M9</f>
+        <f t="shared" si="0"/>
         <v>eu-60bccc8-1619-4222-8313-0fba9641c378</v>
       </c>
       <c r="AO9" s="37"/>
@@ -10900,7 +10905,7 @@
         <v>511</v>
       </c>
       <c r="AN10" s="38" t="str">
-        <f>M10</f>
+        <f t="shared" si="0"/>
         <v>eu-60bccc8-1619-4222-8313-0fba9641c378</v>
       </c>
       <c r="AO10" s="37"/>
@@ -11298,7 +11303,7 @@
         <v>511</v>
       </c>
       <c r="AN11" s="38" t="str">
-        <f>M11</f>
+        <f t="shared" si="0"/>
         <v>eu-60bccc8-1619-4222-8313-0fba9641c378</v>
       </c>
       <c r="AO11" s="37"/>
@@ -11696,7 +11701,7 @@
         <v>511</v>
       </c>
       <c r="AN12" s="38" t="str">
-        <f>M12</f>
+        <f t="shared" si="0"/>
         <v>eu-6ac55fb-67e3-4e5e-9074-82b9ea44eb5e</v>
       </c>
       <c r="AO12" s="37"/>
@@ -12096,7 +12101,7 @@
         <v>511</v>
       </c>
       <c r="AN13" s="38" t="str">
-        <f>M13</f>
+        <f t="shared" si="0"/>
         <v>eu-6ac55fb-67e3-4e5e-9074-82b9ea44eb5e</v>
       </c>
       <c r="AO13" s="37"/>
@@ -12494,7 +12499,7 @@
         <v>511</v>
       </c>
       <c r="AN14" s="38" t="str">
-        <f>M14</f>
+        <f t="shared" si="0"/>
         <v>eu-6ac55fb-67e3-4e5e-9074-82b9ea44eb5e</v>
       </c>
       <c r="AO14" s="37"/>
@@ -12894,7 +12899,7 @@
         <v>511</v>
       </c>
       <c r="AN15" s="38" t="str">
-        <f>M15</f>
+        <f t="shared" si="0"/>
         <v>eu-598e504-1e25-4816-b9ee-7d7f753f21f0</v>
       </c>
       <c r="AO15" s="37"/>
@@ -13296,7 +13301,7 @@
         <v>511</v>
       </c>
       <c r="AN16" s="38" t="str">
-        <f>M16</f>
+        <f t="shared" si="0"/>
         <v>eu-598e504-1e25-4816-b9ee-7d7f753f21f0</v>
       </c>
       <c r="AO16" s="37"/>
@@ -13696,7 +13701,7 @@
         <v>511</v>
       </c>
       <c r="AN17" s="38" t="str">
-        <f>M17</f>
+        <f t="shared" si="0"/>
         <v>eu-598e504-1e25-4816-b9ee-7d7f753f21f0</v>
       </c>
       <c r="AO17" s="37"/>
@@ -14096,7 +14101,7 @@
         <v>511</v>
       </c>
       <c r="AN18" s="38" t="str">
-        <f>M18</f>
+        <f t="shared" si="0"/>
         <v>eu-6042fbd-e6e2-4c99-9b25-e0b3613e6448</v>
       </c>
       <c r="AO18" s="37"/>
@@ -14498,7 +14503,7 @@
         <v>511</v>
       </c>
       <c r="AN19" s="38" t="str">
-        <f>M19</f>
+        <f t="shared" si="0"/>
         <v>eu-6042fbd-e6e2-4c99-9b25-e0b3613e6448</v>
       </c>
       <c r="AO19" s="37"/>
@@ -14898,7 +14903,7 @@
         <v>511</v>
       </c>
       <c r="AN20" s="38" t="str">
-        <f>M20</f>
+        <f t="shared" si="0"/>
         <v>eu-6042fbd-e6e2-4c99-9b25-e0b3613e6448</v>
       </c>
       <c r="AO20" s="37"/>
@@ -15298,7 +15303,7 @@
         <v>511</v>
       </c>
       <c r="AN21" s="38" t="str">
-        <f>M21</f>
+        <f t="shared" si="0"/>
         <v>eu-5d6530e-bd27-4042-86ef-c5d7b8e512e1</v>
       </c>
       <c r="AO21" s="37"/>
@@ -15700,7 +15705,7 @@
         <v>511</v>
       </c>
       <c r="AN22" s="38" t="str">
-        <f>M22</f>
+        <f t="shared" si="0"/>
         <v>eu-5d6530e-bd27-4042-86ef-c5d7b8e512e1</v>
       </c>
       <c r="AO22" s="37"/>
@@ -16100,7 +16105,7 @@
         <v>511</v>
       </c>
       <c r="AN23" s="38" t="str">
-        <f>M23</f>
+        <f t="shared" si="0"/>
         <v>eu-5d6530e-bd27-4042-86ef-c5d7b8e512e1</v>
       </c>
       <c r="AO23" s="37"/>
@@ -16502,7 +16507,7 @@
         <v>251</v>
       </c>
       <c r="AN24" s="44" t="str">
-        <f>M24</f>
+        <f t="shared" si="0"/>
         <v>eu-75311f6-ffd0-404d-bb2e-8bdc8a106440</v>
       </c>
       <c r="AO24" s="44"/>
@@ -16904,7 +16909,7 @@
         <v>251</v>
       </c>
       <c r="AN25" s="44" t="str">
-        <f>M25</f>
+        <f t="shared" si="0"/>
         <v>eu-f297898-2640-44c2-bbe9-c0480da83794</v>
       </c>
       <c r="AO25" s="44"/>
@@ -17308,7 +17313,7 @@
         <v>251</v>
       </c>
       <c r="AN26" s="60" t="str">
-        <f>M26</f>
+        <f t="shared" si="0"/>
         <v>eu-f7b2e37-3550-4c86-b52b-b74eeu-feb6f5</v>
       </c>
       <c r="AO26" s="60"/>
@@ -17712,7 +17717,7 @@
         <v>251</v>
       </c>
       <c r="AN27" s="60" t="str">
-        <f>M27</f>
+        <f t="shared" si="0"/>
         <v>eu-f8deu-39-a09a-4f4b-81ef-8f91f1543860</v>
       </c>
       <c r="AO27" s="60"/>
@@ -18116,7 +18121,7 @@
         <v>251</v>
       </c>
       <c r="AN28" s="60" t="str">
-        <f>M28</f>
+        <f t="shared" si="0"/>
         <v>eu-fd0374e-79ea-4aa4-83bd-e83679eu-d1c6</v>
       </c>
       <c r="AO28" s="60"/>
@@ -18520,7 +18525,7 @@
         <v>251</v>
       </c>
       <c r="AN29" s="60" t="str">
-        <f>M29</f>
+        <f t="shared" si="0"/>
         <v>eu-ff9f212-ca9c-44c9-b3fe-f1cad73c38f9</v>
       </c>
       <c r="AO29" s="60"/>
@@ -18922,7 +18927,7 @@
         <v>251</v>
       </c>
       <c r="AN30" s="67" t="str">
-        <f>M30</f>
+        <f t="shared" si="0"/>
         <v>eu-f297898-2640-44c2-bbe9-c0480da83723</v>
       </c>
       <c r="AO30" s="67"/>
@@ -19322,7 +19327,7 @@
         <v>251</v>
       </c>
       <c r="AN31" s="67" t="str">
-        <f>M31</f>
+        <f t="shared" si="0"/>
         <v>eu-f297898-2640-44c2-bbe9-c0480da83721</v>
       </c>
       <c r="AO31" s="67"/>
@@ -19726,7 +19731,7 @@
         <v>251</v>
       </c>
       <c r="AN32" s="60" t="str">
-        <f>M32</f>
+        <f t="shared" si="0"/>
         <v>eu-7d4e18b-0ed1-416d-8c55-f035388eu-bf0</v>
       </c>
       <c r="AO32" s="60"/>
@@ -20130,7 +20135,7 @@
         <v>251</v>
       </c>
       <c r="AN33" s="60" t="str">
-        <f>M33</f>
+        <f t="shared" si="0"/>
         <v>eu-af02677-bbf9-4e92-8ef5-6f663db30d7a</v>
       </c>
       <c r="AO33" s="60"/>
@@ -20534,7 +20539,7 @@
         <v>251</v>
       </c>
       <c r="AN34" s="60" t="str">
-        <f>M34</f>
+        <f t="shared" ref="AN34:AN65" si="1">M34</f>
         <v>eu-9ac0612-70a1-4f10-85f7-6fa1e8c2109d</v>
       </c>
       <c r="AO34" s="60"/>
@@ -20936,7 +20941,7 @@
         <v>251</v>
       </c>
       <c r="AN35" s="44" t="str">
-        <f>M35</f>
+        <f t="shared" si="1"/>
         <v>eu-384dba6-34c1-48e5-b943-f6589b76a99b</v>
       </c>
       <c r="AO35" s="44"/>
@@ -21235,7 +21240,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="36" spans="1:185" ht="34.200000000000003" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:185" ht="68.400000000000006" x14ac:dyDescent="0.2">
       <c r="A36" s="56" t="s">
         <v>1039</v>
       </c>
@@ -21338,7 +21343,7 @@
         <v>251</v>
       </c>
       <c r="AN36" s="60" t="str">
-        <f>M36</f>
+        <f t="shared" si="1"/>
         <v>eu-76a54e2-8b91-4c88-b540-459b58a10fed</v>
       </c>
       <c r="AO36" s="60"/>
@@ -21639,7 +21644,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="37" spans="1:185" ht="34.200000000000003" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:185" ht="68.400000000000006" x14ac:dyDescent="0.2">
       <c r="A37" s="56" t="s">
         <v>1039</v>
       </c>
@@ -21742,7 +21747,7 @@
         <v>251</v>
       </c>
       <c r="AN37" s="60" t="str">
-        <f>M37</f>
+        <f t="shared" si="1"/>
         <v>eu-7a28eb0-eu-e5-40a9-9726-e5598a90ea65</v>
       </c>
       <c r="AO37" s="60"/>
@@ -22043,7 +22048,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="38" spans="1:185" ht="34.200000000000003" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:185" ht="68.400000000000006" x14ac:dyDescent="0.2">
       <c r="A38" s="56" t="s">
         <v>1039</v>
       </c>
@@ -22146,7 +22151,7 @@
         <v>251</v>
       </c>
       <c r="AN38" s="60" t="str">
-        <f>M38</f>
+        <f t="shared" si="1"/>
         <v>eu-847cca9-13d7-4e2a-9cb8-df995b6653c6</v>
       </c>
       <c r="AO38" s="60"/>
@@ -22447,7 +22452,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="39" spans="1:185" ht="34.200000000000003" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:185" ht="68.400000000000006" x14ac:dyDescent="0.2">
       <c r="A39" s="56" t="s">
         <v>1039</v>
       </c>
@@ -22550,7 +22555,7 @@
         <v>251</v>
       </c>
       <c r="AN39" s="60" t="str">
-        <f>M39</f>
+        <f t="shared" si="1"/>
         <v>eu-94508c4-3b86-4999-a529-fe83a5cdfdcf</v>
       </c>
       <c r="AO39" s="60"/>
@@ -22851,7 +22856,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="40" spans="1:185" ht="34.200000000000003" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:185" ht="68.400000000000006" x14ac:dyDescent="0.2">
       <c r="A40" s="56" t="s">
         <v>1039</v>
       </c>
@@ -22954,7 +22959,7 @@
         <v>251</v>
       </c>
       <c r="AN40" s="60" t="str">
-        <f>M40</f>
+        <f t="shared" si="1"/>
         <v>eu-a34e60f-edda-4ad6-9136-6c3ef5dcf57f</v>
       </c>
       <c r="AO40" s="60"/>
@@ -23255,7 +23260,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="41" spans="1:185" ht="34.200000000000003" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:185" ht="68.400000000000006" x14ac:dyDescent="0.2">
       <c r="A41" s="56" t="s">
         <v>1039</v>
       </c>
@@ -23358,7 +23363,7 @@
         <v>251</v>
       </c>
       <c r="AN41" s="60" t="str">
-        <f>M41</f>
+        <f t="shared" si="1"/>
         <v>eu-caa8159-fdab-48eb-87fe-5d14a7c6f11b</v>
       </c>
       <c r="AO41" s="60"/>
@@ -23659,7 +23664,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="42" spans="1:185" ht="34.200000000000003" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:185" ht="68.400000000000006" x14ac:dyDescent="0.2">
       <c r="A42" s="56" t="s">
         <v>1039</v>
       </c>
@@ -23762,7 +23767,7 @@
         <v>251</v>
       </c>
       <c r="AN42" s="60" t="str">
-        <f>M42</f>
+        <f t="shared" si="1"/>
         <v>eu-cc7af1e-472e-4752-9e8b-aaa13d1ea447</v>
       </c>
       <c r="AO42" s="60"/>
@@ -24162,7 +24167,7 @@
         <v>251</v>
       </c>
       <c r="AN43" s="67" t="str">
-        <f>M43</f>
+        <f t="shared" si="1"/>
         <v>eu-f297898-2640-44c2-bbe9-c0480da83701</v>
       </c>
       <c r="AO43" s="67"/>
@@ -24463,7 +24468,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="44" spans="1:185" ht="34.200000000000003" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:185" ht="68.400000000000006" x14ac:dyDescent="0.2">
       <c r="A44" s="56" t="s">
         <v>1037</v>
       </c>
@@ -24566,7 +24571,7 @@
         <v>251</v>
       </c>
       <c r="AN44" s="60" t="str">
-        <f>M44</f>
+        <f t="shared" si="1"/>
         <v>eu-87fc89d-d967-4402-9551-505bcd06ab70</v>
       </c>
       <c r="AO44" s="60"/>
@@ -24867,7 +24872,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="45" spans="1:185" ht="34.200000000000003" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:185" ht="68.400000000000006" x14ac:dyDescent="0.2">
       <c r="A45" s="56" t="s">
         <v>1037</v>
       </c>
@@ -24970,7 +24975,7 @@
         <v>251</v>
       </c>
       <c r="AN45" s="60" t="str">
-        <f>M45</f>
+        <f t="shared" si="1"/>
         <v>eu-a8da08e-b2dc-425d-8e70-75b1cdcfedc7</v>
       </c>
       <c r="AO45" s="60"/>
@@ -25271,7 +25276,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="46" spans="1:185" ht="34.200000000000003" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:185" ht="68.400000000000006" x14ac:dyDescent="0.2">
       <c r="A46" s="56" t="s">
         <v>1031</v>
       </c>
@@ -25374,7 +25379,7 @@
         <v>251</v>
       </c>
       <c r="AN46" s="60" t="str">
-        <f>M46</f>
+        <f t="shared" si="1"/>
         <v>eu-c28f9a8-349e-4f86-8ef3-1587beab08ca</v>
       </c>
       <c r="AO46" s="60"/>
@@ -25774,7 +25779,7 @@
         <v>251</v>
       </c>
       <c r="AN47" s="67" t="str">
-        <f>M47</f>
+        <f t="shared" si="1"/>
         <v>eu-4eu-997d-1107-4353-a260-d09098d218cf</v>
       </c>
       <c r="AO47" s="67"/>
@@ -26075,7 +26080,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="48" spans="1:185" ht="34.200000000000003" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:185" ht="68.400000000000006" x14ac:dyDescent="0.2">
       <c r="A48" s="56" t="s">
         <v>1040</v>
       </c>
@@ -26178,7 +26183,7 @@
         <v>251</v>
       </c>
       <c r="AN48" s="60" t="str">
-        <f>M48</f>
+        <f t="shared" si="1"/>
         <v>eu-e0cb131-e2fd-4e25-8217-51b2302d2812</v>
       </c>
       <c r="AO48" s="60"/>
@@ -26479,7 +26484,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="49" spans="1:185" ht="34.200000000000003" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:185" ht="68.400000000000006" x14ac:dyDescent="0.2">
       <c r="A49" s="56" t="s">
         <v>1040</v>
       </c>
@@ -26582,7 +26587,7 @@
         <v>251</v>
       </c>
       <c r="AN49" s="60" t="str">
-        <f>M49</f>
+        <f t="shared" si="1"/>
         <v>eu-dab1c96-b808-4bbe-b5ad-f07b412905a6</v>
       </c>
       <c r="AO49" s="60"/>
@@ -26883,7 +26888,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="50" spans="1:185" ht="34.200000000000003" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:185" ht="68.400000000000006" x14ac:dyDescent="0.2">
       <c r="A50" s="56" t="s">
         <v>1040</v>
       </c>
@@ -26986,7 +26991,7 @@
         <v>251</v>
       </c>
       <c r="AN50" s="60" t="str">
-        <f>M50</f>
+        <f t="shared" si="1"/>
         <v>eu-dea663b-5d63-4808-a929-33d3baaa579a</v>
       </c>
       <c r="AO50" s="60"/>
@@ -27384,7 +27389,7 @@
         <v>251</v>
       </c>
       <c r="AN51" s="83" t="str">
-        <f>M51</f>
+        <f t="shared" si="1"/>
         <v>eu-e153f56-b9d9-4702-80cf-1721e644db81</v>
       </c>
       <c r="AO51" s="83"/>
@@ -27782,7 +27787,7 @@
         <v>251</v>
       </c>
       <c r="AN52" s="83" t="str">
-        <f>M52</f>
+        <f t="shared" si="1"/>
         <v>eu-e17d78d-0d84-4c96-a4c7-80c3cddff0d6</v>
       </c>
       <c r="AO52" s="83"/>
@@ -28180,7 +28185,7 @@
         <v>251</v>
       </c>
       <c r="AN53" s="83" t="str">
-        <f>M53</f>
+        <f t="shared" si="1"/>
         <v>eu-e486d46-2644-4e7a-830d-f336b9ff1bae</v>
       </c>
       <c r="AO53" s="83"/>
@@ -28578,7 +28583,7 @@
         <v>251</v>
       </c>
       <c r="AN54" s="83" t="str">
-        <f>M54</f>
+        <f t="shared" si="1"/>
         <v>eu-e6e7fc4-7143-4207-abe2-a03ec95142f8</v>
       </c>
       <c r="AO54" s="83"/>
@@ -28976,7 +28981,7 @@
         <v>251</v>
       </c>
       <c r="AN55" s="83" t="str">
-        <f>M55</f>
+        <f t="shared" si="1"/>
         <v>eu-eb27b4f-cda3-4021-8d5a-cc761471cb9e</v>
       </c>
       <c r="AO55" s="83"/>
@@ -29376,7 +29381,7 @@
         <v>251</v>
       </c>
       <c r="AN56" s="44" t="str">
-        <f>M56</f>
+        <f t="shared" si="1"/>
         <v>eu-eu-37a16-7385-4adc-8ef7-76f9e03d9fcf</v>
       </c>
       <c r="AO56" s="44"/>
@@ -29778,7 +29783,7 @@
         <v>251</v>
       </c>
       <c r="AN57" s="67" t="str">
-        <f>M57</f>
+        <f t="shared" si="1"/>
         <v>eu-43fc1b3-6034-4eu-6-bb0d-2d1967c9ae48</v>
       </c>
       <c r="AO57" s="67"/>
@@ -30180,7 +30185,7 @@
         <v>251</v>
       </c>
       <c r="AN58" s="60" t="str">
-        <f>M58</f>
+        <f t="shared" si="1"/>
         <v>eu-21f76bd-2c73-4678-9fb5-5a353127667c</v>
       </c>
       <c r="AO58" s="60"/>
@@ -30582,7 +30587,7 @@
         <v>251</v>
       </c>
       <c r="AN59" s="60" t="str">
-        <f>M59</f>
+        <f t="shared" si="1"/>
         <v>eu-26fea04-1fe9-48ab-90b2-62acdc868f89</v>
       </c>
       <c r="AO59" s="60"/>
@@ -30984,7 +30989,7 @@
         <v>251</v>
       </c>
       <c r="AN60" s="60" t="str">
-        <f>M60</f>
+        <f t="shared" si="1"/>
         <v>eu-285b1a1-1e21-4e52-8ee6-4af5ce8d5b0d</v>
       </c>
       <c r="AO60" s="60"/>
@@ -31382,7 +31387,7 @@
         <v>251</v>
       </c>
       <c r="AN61" s="44" t="str">
-        <f>M61</f>
+        <f t="shared" si="1"/>
         <v>eu-cb527d-f6db-4835-b0cd-deb245241254</v>
       </c>
       <c r="AO61" s="44"/>
@@ -31681,7 +31686,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="62" spans="1:185" ht="22.8" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:185" ht="45.6" x14ac:dyDescent="0.2">
       <c r="A62" s="56" t="s">
         <v>1035</v>
       </c>
@@ -31782,7 +31787,7 @@
         <v>251</v>
       </c>
       <c r="AN62" s="60" t="str">
-        <f>M62</f>
+        <f t="shared" si="1"/>
         <v>eu-02a0e06-cfa0-474a-97f4-0364ebf64d7d</v>
       </c>
       <c r="AO62" s="60"/>
@@ -32083,7 +32088,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="63" spans="1:185" ht="22.8" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:185" ht="45.6" x14ac:dyDescent="0.2">
       <c r="A63" s="56" t="s">
         <v>1035</v>
       </c>
@@ -32184,7 +32189,7 @@
         <v>251</v>
       </c>
       <c r="AN63" s="60" t="str">
-        <f>M63</f>
+        <f t="shared" si="1"/>
         <v>eu-081cccc-d0c3-4498-b54d-e5d0c0fe0c1c</v>
       </c>
       <c r="AO63" s="60"/>
@@ -32485,7 +32490,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="64" spans="1:185" ht="22.8" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:185" ht="45.6" x14ac:dyDescent="0.2">
       <c r="A64" s="56" t="s">
         <v>1035</v>
       </c>
@@ -32586,7 +32591,7 @@
         <v>251</v>
       </c>
       <c r="AN64" s="60" t="str">
-        <f>M64</f>
+        <f t="shared" si="1"/>
         <v>eu-cb527d-f6db-4835-b0cd-deb245241255</v>
       </c>
       <c r="AO64" s="60"/>
@@ -32887,7 +32892,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="65" spans="1:185" ht="22.8" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:185" ht="45.6" x14ac:dyDescent="0.2">
       <c r="A65" s="56" t="s">
         <v>1035</v>
       </c>
@@ -32988,7 +32993,7 @@
         <v>251</v>
       </c>
       <c r="AN65" s="60" t="str">
-        <f>M65</f>
+        <f t="shared" si="1"/>
         <v>eu-09d4690-add9-4e70-a98d-190bb9d67045</v>
       </c>
       <c r="AO65" s="60"/>
@@ -33287,7 +33292,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="66" spans="1:185" ht="22.8" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:185" ht="45.6" x14ac:dyDescent="0.2">
       <c r="A66" s="56" t="s">
         <v>1035</v>
       </c>
@@ -33388,7 +33393,7 @@
         <v>251</v>
       </c>
       <c r="AN66" s="60" t="str">
-        <f>M66</f>
+        <f t="shared" ref="AN66:AN97" si="2">M66</f>
         <v>eu-cb527d-f6db-4835-b0cd-deb245241256</v>
       </c>
       <c r="AO66" s="60"/>
@@ -33689,7 +33694,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="67" spans="1:185" ht="22.8" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:185" ht="45.6" x14ac:dyDescent="0.2">
       <c r="A67" s="56" t="s">
         <v>1035</v>
       </c>
@@ -33790,7 +33795,7 @@
         <v>251</v>
       </c>
       <c r="AN67" s="60" t="str">
-        <f>M67</f>
+        <f t="shared" si="2"/>
         <v>eu-cb527d-f6db-4835-b0cd-deb245241257</v>
       </c>
       <c r="AO67" s="60"/>
@@ -34091,7 +34096,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="68" spans="1:185" ht="22.8" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:185" ht="45.6" x14ac:dyDescent="0.2">
       <c r="A68" s="56" t="s">
         <v>1035</v>
       </c>
@@ -34192,7 +34197,7 @@
         <v>251</v>
       </c>
       <c r="AN68" s="60" t="str">
-        <f>M68</f>
+        <f t="shared" si="2"/>
         <v>eu-179bba1-5a40-4bfb-b968-d1fe632aa785</v>
       </c>
       <c r="AO68" s="60"/>
@@ -34594,7 +34599,7 @@
         <v>251</v>
       </c>
       <c r="AN69" s="60" t="str">
-        <f>M69</f>
+        <f t="shared" si="2"/>
         <v>eu-1c189c5-7e66-4570-87b7-7bc2eeeu-e036</v>
       </c>
       <c r="AO69" s="60"/>
@@ -34996,7 +35001,7 @@
         <v>251</v>
       </c>
       <c r="AN70" s="60" t="str">
-        <f>M70</f>
+        <f t="shared" si="2"/>
         <v>eu-cb527d-f6db-4835-b0cd-deb245241258</v>
       </c>
       <c r="AO70" s="60"/>
@@ -35297,7 +35302,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="71" spans="1:185" ht="22.8" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:185" ht="45.6" x14ac:dyDescent="0.2">
       <c r="A71" s="56" t="s">
         <v>1035</v>
       </c>
@@ -35398,7 +35403,7 @@
         <v>251</v>
       </c>
       <c r="AN71" s="60" t="str">
-        <f>M71</f>
+        <f t="shared" si="2"/>
         <v>eu-2096ba4-1e34-438f-ad70-3c225cf0b247</v>
       </c>
       <c r="AO71" s="60"/>
@@ -35699,7 +35704,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="72" spans="1:185" ht="22.8" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:185" ht="45.6" x14ac:dyDescent="0.2">
       <c r="A72" s="56" t="s">
         <v>1035</v>
       </c>
@@ -35800,7 +35805,7 @@
         <v>251</v>
       </c>
       <c r="AN72" s="60" t="str">
-        <f>M72</f>
+        <f t="shared" si="2"/>
         <v>eu-2488ab3-eb49-491f-8db8-459e658b2322</v>
       </c>
       <c r="AO72" s="60"/>
@@ -36101,7 +36106,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="73" spans="1:185" ht="22.8" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:185" ht="45.6" x14ac:dyDescent="0.2">
       <c r="A73" s="56" t="s">
         <v>1035</v>
       </c>
@@ -36202,7 +36207,7 @@
         <v>251</v>
       </c>
       <c r="AN73" s="60" t="str">
-        <f>M73</f>
+        <f t="shared" si="2"/>
         <v>eu-cb527d-f6db-4835-b0cd-deb245241259</v>
       </c>
       <c r="AO73" s="60"/>
@@ -36503,7 +36508,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="74" spans="1:185" ht="22.8" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:185" ht="45.6" x14ac:dyDescent="0.2">
       <c r="A74" s="56" t="s">
         <v>1035</v>
       </c>
@@ -36604,7 +36609,7 @@
         <v>251</v>
       </c>
       <c r="AN74" s="60" t="str">
-        <f>M74</f>
+        <f t="shared" si="2"/>
         <v>eu-cb527d-f6db-4835-b0cd-deb245241262</v>
       </c>
       <c r="AO74" s="60"/>
@@ -36905,7 +36910,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="75" spans="1:185" ht="22.8" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:185" ht="45.6" x14ac:dyDescent="0.2">
       <c r="A75" s="56" t="s">
         <v>1035</v>
       </c>
@@ -37006,7 +37011,7 @@
         <v>251</v>
       </c>
       <c r="AN75" s="60" t="str">
-        <f>M75</f>
+        <f t="shared" si="2"/>
         <v>eu-cb527d-f6db-4835-b0cd-deb245241263</v>
       </c>
       <c r="AO75" s="60"/>
@@ -37307,7 +37312,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="76" spans="1:185" ht="22.8" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:185" ht="45.6" x14ac:dyDescent="0.2">
       <c r="A76" s="56" t="s">
         <v>1035</v>
       </c>
@@ -37408,7 +37413,7 @@
         <v>251</v>
       </c>
       <c r="AN76" s="60" t="str">
-        <f>M76</f>
+        <f t="shared" si="2"/>
         <v>eu-cb527d-f6db-4835-b0cd-deb245241264</v>
       </c>
       <c r="AO76" s="60"/>
@@ -37709,7 +37714,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="77" spans="1:185" ht="22.8" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:185" ht="45.6" x14ac:dyDescent="0.2">
       <c r="A77" s="56" t="s">
         <v>1035</v>
       </c>
@@ -37810,7 +37815,7 @@
         <v>251</v>
       </c>
       <c r="AN77" s="60" t="str">
-        <f>M77</f>
+        <f t="shared" si="2"/>
         <v>eu-cb527d-f6db-4835-b0cd-deb245241266</v>
       </c>
       <c r="AO77" s="60"/>
@@ -38111,7 +38116,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="78" spans="1:185" ht="22.8" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:185" ht="45.6" x14ac:dyDescent="0.2">
       <c r="A78" s="56" t="s">
         <v>1035</v>
       </c>
@@ -38212,7 +38217,7 @@
         <v>251</v>
       </c>
       <c r="AN78" s="60" t="str">
-        <f>M78</f>
+        <f t="shared" si="2"/>
         <v>eu-cb527d-f6db-4835-b0cd-deb245241267</v>
       </c>
       <c r="AO78" s="60"/>
@@ -38513,7 +38518,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="79" spans="1:185" ht="22.8" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:185" ht="45.6" x14ac:dyDescent="0.2">
       <c r="A79" s="56" t="s">
         <v>1035</v>
       </c>
@@ -38614,7 +38619,7 @@
         <v>251</v>
       </c>
       <c r="AN79" s="60" t="str">
-        <f>M79</f>
+        <f t="shared" si="2"/>
         <v>eu-cb527d-f6db-4835-b0cd-deb245241268</v>
       </c>
       <c r="AO79" s="60"/>
@@ -38915,7 +38920,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="80" spans="1:185" ht="22.8" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:185" ht="45.6" x14ac:dyDescent="0.2">
       <c r="A80" s="56" t="s">
         <v>1035</v>
       </c>
@@ -39016,7 +39021,7 @@
         <v>251</v>
       </c>
       <c r="AN80" s="60" t="str">
-        <f>M80</f>
+        <f t="shared" si="2"/>
         <v>eu-cb527d-f6db-4835-b0cd-deb245241269</v>
       </c>
       <c r="AO80" s="60"/>
@@ -39317,7 +39322,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="81" spans="1:185" ht="22.8" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:185" ht="45.6" x14ac:dyDescent="0.2">
       <c r="A81" s="56" t="s">
         <v>1035</v>
       </c>
@@ -39418,7 +39423,7 @@
         <v>251</v>
       </c>
       <c r="AN81" s="60" t="str">
-        <f>M81</f>
+        <f t="shared" si="2"/>
         <v>eu-2820857-09cc-4931-9fb8-a25661cfef46</v>
       </c>
       <c r="AO81" s="60"/>
@@ -39719,7 +39724,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="82" spans="1:185" ht="22.8" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:185" ht="45.6" x14ac:dyDescent="0.2">
       <c r="A82" s="56" t="s">
         <v>1035</v>
       </c>
@@ -39818,7 +39823,7 @@
         <v>251</v>
       </c>
       <c r="AN82" s="60" t="str">
-        <f>M82</f>
+        <f t="shared" si="2"/>
         <v>eu-45d0f20-aae1-40c9-9bf6-4da605e728e2</v>
       </c>
       <c r="AO82" s="60"/>
@@ -40218,7 +40223,7 @@
         <v>251</v>
       </c>
       <c r="AN83" s="67" t="str">
-        <f>M83</f>
+        <f t="shared" si="2"/>
         <v>eu-48caf74-e4c2-433e-9a45-ee85442d26aa</v>
       </c>
       <c r="AO83" s="67"/>
@@ -40519,7 +40524,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="84" spans="1:185" ht="22.8" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:185" ht="45.6" x14ac:dyDescent="0.2">
       <c r="A84" s="56" t="s">
         <v>1032</v>
       </c>
@@ -40622,7 +40627,7 @@
         <v>251</v>
       </c>
       <c r="AN84" s="60" t="str">
-        <f>M84</f>
+        <f t="shared" si="2"/>
         <v>eu-cb527d-f6db-4835-b0cd-deb245241260</v>
       </c>
       <c r="AO84" s="60"/>
@@ -40923,7 +40928,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="85" spans="1:185" ht="22.8" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:185" ht="45.6" x14ac:dyDescent="0.2">
       <c r="A85" s="56" t="s">
         <v>1032</v>
       </c>
@@ -41026,7 +41031,7 @@
         <v>251</v>
       </c>
       <c r="AN85" s="60" t="str">
-        <f>M85</f>
+        <f t="shared" si="2"/>
         <v>eu-cb527d-f6db-4835-b0cd-deb245241261</v>
       </c>
       <c r="AO85" s="60"/>
@@ -41327,7 +41332,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="86" spans="1:185" ht="22.8" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:185" ht="45.6" x14ac:dyDescent="0.2">
       <c r="A86" s="56" t="s">
         <v>1032</v>
       </c>
@@ -41430,7 +41435,7 @@
         <v>251</v>
       </c>
       <c r="AN86" s="60" t="str">
-        <f>M86</f>
+        <f t="shared" si="2"/>
         <v>eu-cb527d-f6db-4835-b0cd-deb245241265</v>
       </c>
       <c r="AO86" s="60"/>
@@ -41731,7 +41736,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="87" spans="1:185" ht="22.8" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:185" ht="45.6" x14ac:dyDescent="0.2">
       <c r="A87" s="56" t="s">
         <v>1032</v>
       </c>
@@ -41834,7 +41839,7 @@
         <v>251</v>
       </c>
       <c r="AN87" s="60" t="str">
-        <f>M87</f>
+        <f t="shared" si="2"/>
         <v>eu-4a68255-8681-4e76-9227-d4624a8b9deb</v>
       </c>
       <c r="AO87" s="60"/>
@@ -42232,7 +42237,7 @@
         <v>251</v>
       </c>
       <c r="AN88" s="44" t="str">
-        <f>M88</f>
+        <f t="shared" si="2"/>
         <v>eu-2c7040b-c448-451b-bf15-f2416ecaadd1</v>
       </c>
       <c r="AO88" s="44"/>
@@ -42531,7 +42536,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="89" spans="1:185" ht="22.8" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:185" ht="45.6" x14ac:dyDescent="0.2">
       <c r="A89" s="56" t="s">
         <v>1033</v>
       </c>
@@ -42632,7 +42637,7 @@
         <v>251</v>
       </c>
       <c r="AN89" s="60" t="str">
-        <f>M89</f>
+        <f t="shared" si="2"/>
         <v>eu-510603-3a1f-4a83-8403-14c9bfe68e52</v>
       </c>
       <c r="AO89" s="60"/>
@@ -42933,7 +42938,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="90" spans="1:185" ht="22.8" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:185" ht="45.6" x14ac:dyDescent="0.2">
       <c r="A90" s="56" t="s">
         <v>1033</v>
       </c>
@@ -43032,7 +43037,7 @@
         <v>251</v>
       </c>
       <c r="AN90" s="60" t="str">
-        <f>M90</f>
+        <f t="shared" si="2"/>
         <v>eu-30bddb4-0528-459c-94f9-080279e49ddf</v>
       </c>
       <c r="AO90" s="60"/>
@@ -43333,7 +43338,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="91" spans="1:185" ht="34.200000000000003" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:185" ht="45.6" x14ac:dyDescent="0.2">
       <c r="A91" s="56" t="s">
         <v>1033</v>
       </c>
@@ -43432,7 +43437,7 @@
         <v>251</v>
       </c>
       <c r="AN91" s="60" t="str">
-        <f>M91</f>
+        <f t="shared" si="2"/>
         <v>eu-366d8da-c9cf-4073-8d8c-9a0c9c241759</v>
       </c>
       <c r="AO91" s="60"/>
@@ -43733,7 +43738,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="92" spans="1:185" ht="22.8" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:185" ht="45.6" x14ac:dyDescent="0.2">
       <c r="A92" s="56" t="s">
         <v>1033</v>
       </c>
@@ -43832,7 +43837,7 @@
         <v>251</v>
       </c>
       <c r="AN92" s="60" t="str">
-        <f>M92</f>
+        <f t="shared" si="2"/>
         <v>eu-377d757-2696-4ed6-a3e5-c8436769bf27</v>
       </c>
       <c r="AO92" s="60"/>
@@ -44133,7 +44138,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="93" spans="1:185" ht="22.8" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:185" ht="45.6" x14ac:dyDescent="0.2">
       <c r="A93" s="56" t="s">
         <v>1033</v>
       </c>
@@ -44232,7 +44237,7 @@
         <v>251</v>
       </c>
       <c r="AN93" s="60" t="str">
-        <f>M93</f>
+        <f t="shared" si="2"/>
         <v>eu-427e866-03fc-4d20-a229-ca86d5fcec38</v>
       </c>
       <c r="AO93" s="60"/>
@@ -44533,7 +44538,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="94" spans="1:185" ht="22.8" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:185" ht="45.6" x14ac:dyDescent="0.2">
       <c r="A94" s="56" t="s">
         <v>1033</v>
       </c>
@@ -44632,7 +44637,7 @@
         <v>251</v>
       </c>
       <c r="AN94" s="60" t="str">
-        <f>M94</f>
+        <f t="shared" si="2"/>
         <v>eu-528cdc0-aed9-416e-9d35-f64a6f8e0afc</v>
       </c>
       <c r="AO94" s="60"/>
@@ -44933,7 +44938,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="95" spans="1:185" ht="22.8" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:185" ht="45.6" x14ac:dyDescent="0.2">
       <c r="A95" s="56" t="s">
         <v>1033</v>
       </c>
@@ -45032,7 +45037,7 @@
         <v>251</v>
       </c>
       <c r="AN95" s="60" t="str">
-        <f>M95</f>
+        <f t="shared" si="2"/>
         <v>eu-57679ca-299e-4668-a787-70db7dd161b1</v>
       </c>
       <c r="AO95" s="60"/>
@@ -45333,7 +45338,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="96" spans="1:185" ht="22.8" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:185" ht="45.6" x14ac:dyDescent="0.2">
       <c r="A96" s="56" t="s">
         <v>1033</v>
       </c>
@@ -45434,7 +45439,7 @@
         <v>251</v>
       </c>
       <c r="AN96" s="60" t="str">
-        <f>M96</f>
+        <f t="shared" si="2"/>
         <v>eu-510603-3a1f-4a83-8403-14c9bfe68e54</v>
       </c>
       <c r="AO96" s="60"/>
@@ -45735,7 +45740,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="97" spans="1:185" ht="22.8" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:185" ht="45.6" x14ac:dyDescent="0.2">
       <c r="A97" s="56" t="s">
         <v>1033</v>
       </c>
@@ -45834,7 +45839,7 @@
         <v>251</v>
       </c>
       <c r="AN97" s="60" t="str">
-        <f>M97</f>
+        <f t="shared" si="2"/>
         <v>eu-596e594-2b9c-47c0-b380-544eb1d563c4</v>
       </c>
       <c r="AO97" s="60"/>
@@ -46135,7 +46140,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="98" spans="1:185" ht="22.8" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:185" ht="45.6" x14ac:dyDescent="0.2">
       <c r="A98" s="56" t="s">
         <v>1033</v>
       </c>
@@ -46236,7 +46241,7 @@
         <v>251</v>
       </c>
       <c r="AN98" s="60" t="str">
-        <f>M98</f>
+        <f t="shared" ref="AN98:AN129" si="3">M98</f>
         <v>eu-510603-3a1f-4a83-8403-14c9bfe68e55</v>
       </c>
       <c r="AO98" s="60"/>
@@ -46537,7 +46542,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="99" spans="1:185" ht="22.8" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:185" ht="45.6" x14ac:dyDescent="0.2">
       <c r="A99" s="56" t="s">
         <v>1033</v>
       </c>
@@ -46638,7 +46643,7 @@
         <v>251</v>
       </c>
       <c r="AN99" s="60" t="str">
-        <f>M99</f>
+        <f t="shared" si="3"/>
         <v>eu-510603-3a1f-4a83-8403-14c9bfe68e56</v>
       </c>
       <c r="AO99" s="60"/>
@@ -46939,7 +46944,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="100" spans="1:185" ht="22.8" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:185" ht="45.6" x14ac:dyDescent="0.2">
       <c r="A100" s="56" t="s">
         <v>1033</v>
       </c>
@@ -47038,7 +47043,7 @@
         <v>251</v>
       </c>
       <c r="AN100" s="60" t="str">
-        <f>M100</f>
+        <f t="shared" si="3"/>
         <v>eu-6e41d32-3954-4f1f-9add-3a786d8a7250</v>
       </c>
       <c r="AO100" s="60"/>
@@ -47339,7 +47344,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="101" spans="1:185" ht="22.8" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:185" ht="45.6" x14ac:dyDescent="0.2">
       <c r="A101" s="56" t="s">
         <v>1033</v>
       </c>
@@ -47438,7 +47443,7 @@
         <v>251</v>
       </c>
       <c r="AN101" s="60" t="str">
-        <f>M101</f>
+        <f t="shared" si="3"/>
         <v>eu-702c802-c8e2-4164-a69b-52023790a1ce</v>
       </c>
       <c r="AO101" s="60"/>
@@ -47840,7 +47845,7 @@
         <v>251</v>
       </c>
       <c r="AN102" s="67" t="str">
-        <f>M102</f>
+        <f t="shared" si="3"/>
         <v>eu-4beff56-edeu--4e3e-b6c1-dff9e64a172b</v>
       </c>
       <c r="AO102" s="67"/>
@@ -48141,7 +48146,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="103" spans="1:185" ht="34.200000000000003" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:185" ht="68.400000000000006" x14ac:dyDescent="0.2">
       <c r="A103" s="56" t="s">
         <v>1036</v>
       </c>
@@ -48244,7 +48249,7 @@
         <v>251</v>
       </c>
       <c r="AN103" s="60" t="str">
-        <f>M103</f>
+        <f t="shared" si="3"/>
         <v>eu-45d4eb4-f833-4c39-afb7-476d6ecce17e</v>
       </c>
       <c r="AO103" s="60"/>
@@ -48545,7 +48550,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="104" spans="1:185" ht="34.200000000000003" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:185" ht="68.400000000000006" x14ac:dyDescent="0.2">
       <c r="A104" s="56" t="s">
         <v>1036</v>
       </c>
@@ -48648,7 +48653,7 @@
         <v>251</v>
       </c>
       <c r="AN104" s="60" t="str">
-        <f>M104</f>
+        <f t="shared" si="3"/>
         <v>eu-45d4eb4-f833-4c39-afb7-476d6ecce17e</v>
       </c>
       <c r="AO104" s="60"/>
@@ -48949,7 +48954,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="105" spans="1:185" ht="34.200000000000003" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:185" ht="68.400000000000006" x14ac:dyDescent="0.2">
       <c r="A105" s="56" t="s">
         <v>1036</v>
       </c>
@@ -49052,7 +49057,7 @@
         <v>251</v>
       </c>
       <c r="AN105" s="60" t="str">
-        <f>M105</f>
+        <f t="shared" si="3"/>
         <v>eu-689c5b7-4f92-4d09-8ac6-7ef366dd733d</v>
       </c>
       <c r="AO105" s="60"/>
@@ -49353,7 +49358,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="106" spans="1:185" ht="34.200000000000003" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:185" ht="68.400000000000006" x14ac:dyDescent="0.2">
       <c r="A106" s="56" t="s">
         <v>1036</v>
       </c>
@@ -49452,7 +49457,7 @@
         <v>251</v>
       </c>
       <c r="AN106" s="60" t="str">
-        <f>M106</f>
+        <f t="shared" si="3"/>
         <v>eu-a340c4d-c6a3-46a5-8a6a-65319d137adb</v>
       </c>
       <c r="AO106" s="60"/>
@@ -49753,7 +49758,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="107" spans="1:185" ht="34.200000000000003" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:185" ht="68.400000000000006" x14ac:dyDescent="0.2">
       <c r="A107" s="56" t="s">
         <v>1036</v>
       </c>
@@ -49856,7 +49861,7 @@
         <v>251</v>
       </c>
       <c r="AN107" s="60" t="str">
-        <f>M107</f>
+        <f t="shared" si="3"/>
         <v>eu-c84d26e-e740-4e28-a030-f6d25eae2085</v>
       </c>
       <c r="AO107" s="60"/>
@@ -50256,7 +50261,7 @@
         <v>251</v>
       </c>
       <c r="AN108" s="60" t="str">
-        <f>M108</f>
+        <f t="shared" si="3"/>
         <v>eu-703f342-d675-48a8-b969-30411305eu-58</v>
       </c>
       <c r="AO108" s="60"/>
@@ -50656,7 +50661,7 @@
         <v>251</v>
       </c>
       <c r="AN109" s="60" t="str">
-        <f>M109</f>
+        <f t="shared" si="3"/>
         <v>eu-7309c79-0b37-4b3c-9d3a-159123eu-848d</v>
       </c>
       <c r="AO109" s="60"/>
@@ -51056,7 +51061,7 @@
         <v>251</v>
       </c>
       <c r="AN110" s="60" t="str">
-        <f>M110</f>
+        <f t="shared" si="3"/>
         <v>eu-8dc93b4-f087-46ce-a5a6-1fe403760bb2</v>
       </c>
       <c r="AO110" s="60"/>
@@ -51456,7 +51461,7 @@
         <v>251</v>
       </c>
       <c r="AN111" s="60" t="str">
-        <f>M111</f>
+        <f t="shared" si="3"/>
         <v>eu-9ec182a-3a4c-4e13-949e-0708b2737028</v>
       </c>
       <c r="AO111" s="60"/>
@@ -51856,7 +51861,7 @@
         <v>251</v>
       </c>
       <c r="AN112" s="60" t="str">
-        <f>M112</f>
+        <f t="shared" si="3"/>
         <v>eu-9ec182a-3a4c-4e13-949e-0708b2737029</v>
       </c>
       <c r="AO112" s="60"/>
@@ -52256,7 +52261,7 @@
         <v>251</v>
       </c>
       <c r="AN113" s="60" t="str">
-        <f>M113</f>
+        <f t="shared" si="3"/>
         <v>eu-9ec182a-3a4c-4e13-949e-0708b2737030</v>
       </c>
       <c r="AO113" s="60"/>
@@ -52557,7 +52562,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="114" spans="1:185" ht="22.8" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:185" ht="45.6" x14ac:dyDescent="0.2">
       <c r="A114" s="56" t="s">
         <v>1033</v>
       </c>
@@ -52656,7 +52661,7 @@
         <v>251</v>
       </c>
       <c r="AN114" s="60" t="str">
-        <f>M114</f>
+        <f t="shared" si="3"/>
         <v>eu-2b58587-a22d-49e0-b0b2-a954e1ef09fb</v>
       </c>
       <c r="AO114" s="60"/>
@@ -52955,7 +52960,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="115" spans="1:185" ht="22.8" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:185" ht="45.6" x14ac:dyDescent="0.2">
       <c r="A115" s="56" t="s">
         <v>1033</v>
       </c>
@@ -53054,7 +53059,7 @@
         <v>251</v>
       </c>
       <c r="AN115" s="60" t="str">
-        <f>M115</f>
+        <f t="shared" si="3"/>
         <v>eu-a86896-99ed-476c-a6d7-94841e9d89a0</v>
       </c>
       <c r="AO115" s="60"/>
@@ -53355,7 +53360,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="116" spans="1:185" ht="22.8" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:185" ht="45.6" x14ac:dyDescent="0.2">
       <c r="A116" s="56" t="s">
         <v>1033</v>
       </c>
@@ -53454,7 +53459,7 @@
         <v>251</v>
       </c>
       <c r="AN116" s="60" t="str">
-        <f>M116</f>
+        <f t="shared" si="3"/>
         <v>eu-a8e6e7c-2945-4b43-b4be-98b4f21a4c91</v>
       </c>
       <c r="AO116" s="60"/>
@@ -53755,12 +53760,12 @@
         <v>177</v>
       </c>
     </row>
-    <row r="117" spans="1:185" ht="22.8" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:185" ht="57" x14ac:dyDescent="0.2">
       <c r="A117" s="56" t="s">
         <v>1033</v>
       </c>
       <c r="B117" s="112" t="s">
-        <v>1336</v>
+        <v>1345</v>
       </c>
       <c r="C117" s="57" t="s">
         <v>1334</v>
@@ -53854,7 +53859,7 @@
         <v>251</v>
       </c>
       <c r="AN117" s="60" t="str">
-        <f>M117</f>
+        <f t="shared" si="3"/>
         <v>eu-ca13984-c297-4f0e-a749-e5c846e70276</v>
       </c>
       <c r="AO117" s="60"/>
@@ -54242,7 +54247,7 @@
         <v>251</v>
       </c>
       <c r="AN118" s="99" t="str">
-        <f>M118</f>
+        <f t="shared" si="3"/>
         <v>a</v>
       </c>
       <c r="AO118" s="99"/>
@@ -54626,7 +54631,7 @@
         <v>251</v>
       </c>
       <c r="AN119" s="99" t="str">
-        <f>M119</f>
+        <f t="shared" si="3"/>
         <v>b</v>
       </c>
       <c r="AO119" s="99"/>
@@ -55010,7 +55015,7 @@
         <v>251</v>
       </c>
       <c r="AN120" s="99" t="str">
-        <f>M120</f>
+        <f t="shared" si="3"/>
         <v>c</v>
       </c>
       <c r="AO120" s="99"/>
@@ -55394,7 +55399,7 @@
         <v>251</v>
       </c>
       <c r="AN121" s="99" t="str">
-        <f>M121</f>
+        <f t="shared" si="3"/>
         <v>d</v>
       </c>
       <c r="AO121" s="99"/>
@@ -55776,7 +55781,7 @@
         <v>251</v>
       </c>
       <c r="AN122" s="83" t="str">
-        <f>M122</f>
+        <f t="shared" si="3"/>
         <v>e</v>
       </c>
       <c r="AO122" s="83"/>
@@ -56156,7 +56161,7 @@
         <v>251</v>
       </c>
       <c r="AN123" s="83" t="str">
-        <f>M123</f>
+        <f t="shared" si="3"/>
         <v>f</v>
       </c>
       <c r="AO123" s="83"/>
@@ -56536,7 +56541,7 @@
         <v>251</v>
       </c>
       <c r="AN124" s="83" t="str">
-        <f>M124</f>
+        <f t="shared" si="3"/>
         <v>g</v>
       </c>
       <c r="AO124" s="83"/>
@@ -56916,7 +56921,7 @@
         <v>251</v>
       </c>
       <c r="AN125" s="83" t="str">
-        <f>M125</f>
+        <f t="shared" si="3"/>
         <v>h</v>
       </c>
       <c r="AO125" s="83"/>
@@ -57296,7 +57301,7 @@
         <v>251</v>
       </c>
       <c r="AN126" s="83" t="str">
-        <f>M126</f>
+        <f t="shared" si="3"/>
         <v>i</v>
       </c>
       <c r="AO126" s="83"/>
@@ -57676,7 +57681,7 @@
         <v>251</v>
       </c>
       <c r="AN127" s="83" t="str">
-        <f>M127</f>
+        <f t="shared" si="3"/>
         <v>j</v>
       </c>
       <c r="AO127" s="83"/>
@@ -58056,7 +58061,7 @@
         <v>251</v>
       </c>
       <c r="AN128" s="83" t="str">
-        <f>M128</f>
+        <f t="shared" si="3"/>
         <v>k</v>
       </c>
       <c r="AO128" s="83"/>
@@ -58436,7 +58441,7 @@
         <v>251</v>
       </c>
       <c r="AN129" s="83" t="str">
-        <f>M129</f>
+        <f t="shared" si="3"/>
         <v>l</v>
       </c>
       <c r="AO129" s="83"/>
@@ -58816,7 +58821,7 @@
         <v>251</v>
       </c>
       <c r="AN130" s="83" t="str">
-        <f>M130</f>
+        <f t="shared" ref="AN130:AN135" si="4">M130</f>
         <v>m</v>
       </c>
       <c r="AO130" s="83"/>
@@ -59196,7 +59201,7 @@
         <v>251</v>
       </c>
       <c r="AN131" s="83" t="str">
-        <f>M131</f>
+        <f t="shared" si="4"/>
         <v>n</v>
       </c>
       <c r="AO131" s="83"/>
@@ -59576,7 +59581,7 @@
         <v>251</v>
       </c>
       <c r="AN132" s="83" t="str">
-        <f>M132</f>
+        <f t="shared" si="4"/>
         <v>o</v>
       </c>
       <c r="AO132" s="83"/>
@@ -59956,7 +59961,7 @@
         <v>251</v>
       </c>
       <c r="AN133" s="83" t="str">
-        <f>M133</f>
+        <f t="shared" si="4"/>
         <v>p</v>
       </c>
       <c r="AO133" s="83"/>
@@ -60336,7 +60341,7 @@
         <v>251</v>
       </c>
       <c r="AN134" s="83" t="str">
-        <f>M134</f>
+        <f t="shared" si="4"/>
         <v>q</v>
       </c>
       <c r="AO134" s="83"/>
@@ -60716,7 +60721,7 @@
         <v>251</v>
       </c>
       <c r="AN135" s="83" t="str">
-        <f>M135</f>
+        <f t="shared" si="4"/>
         <v>r</v>
       </c>
       <c r="AO135" s="83"/>
